--- a/files/system/import-shackles-sample.xlsx
+++ b/files/system/import-shackles-sample.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+  <si>
+    <t xml:space="preserve">Item description</t>
+  </si>
   <si>
     <t xml:space="preserve">Internal ID</t>
   </si>
@@ -31,21 +34,21 @@
     <t xml:space="preserve">Type</t>
   </si>
   <si>
+    <t xml:space="preserve">BL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL</t>
+  </si>
+  <si>
     <t xml:space="preserve">Qty</t>
   </si>
   <si>
-    <t xml:space="preserve">BL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL</t>
-  </si>
-  <si>
     <t xml:space="preserve">ICC</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
     <t xml:space="preserve">Inspection Authority</t>
   </si>
   <si>
+    <t xml:space="preserve">Lifts</t>
+  </si>
+  <si>
     <t xml:space="preserve">Date of discharged</t>
   </si>
   <si>
@@ -100,7 +106,10 @@
     <t xml:space="preserve">Inspection Passed</t>
   </si>
   <si>
-    <t xml:space="preserve">G-373-75-2</t>
+    <t xml:space="preserve">400 Ts--Sling Shackle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-400-01-1</t>
   </si>
   <si>
     <t xml:space="preserve">Sling Shackle</t>
@@ -138,7 +147,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$-809]dd\ mmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -178,6 +187,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF44546A"/>
       <name val="Arial"/>
@@ -214,7 +230,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,16 +239,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFEEECE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEEECE1"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
@@ -315,43 +351,43 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -432,35 +468,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ6"/>
+  <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <pane xSplit="8" ySplit="0" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="W3" activeCellId="0" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="5.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="5.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="2" width="5.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="11.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="11.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="10.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="11.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="11.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="10.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="11.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="12.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="2" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="2" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="2" width="14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="27" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="5.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="2" width="5.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="11.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="8.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="3" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="11.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="2" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="2" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="26" style="2" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="2" width="14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="29" style="2" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -542,21 +582,25 @@
       <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AMI1" s="6"/>
-      <c r="AMJ1" s="6"/>
+      <c r="AA1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="8" t="n">
+    <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="8" t="n">
         <v>373</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="9" t="n">
-        <v>4</v>
+      <c r="D2" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="E2" s="9" t="n">
         <v>1230</v>
@@ -570,85 +614,91 @@
       <c r="H2" s="10" t="n">
         <v>580</v>
       </c>
-      <c r="I2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="10" t="n">
+      <c r="I2" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="M2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="12" t="n">
+      <c r="N2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="12" t="n">
         <v>39476</v>
       </c>
-      <c r="O2" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="12" t="n">
+      <c r="P2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="12" t="n">
         <v>39454</v>
       </c>
-      <c r="Q2" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="12" t="n">
+      <c r="R2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" s="12" t="n">
         <v>41981</v>
       </c>
-      <c r="S2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2" s="12" t="n">
+      <c r="T2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2" s="12" t="n">
         <v>44891</v>
       </c>
-      <c r="U2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="V2" s="13"/>
-      <c r="W2" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" s="13" t="n">
+      <c r="V2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Y2" s="13" t="n">
+      <c r="AA2" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Z2" s="13" t="n">
+      <c r="AB2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="AA2" s="0"/>
-      <c r="AB2" s="0"/>
       <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="C4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/files/system/import-shackles-sample.xlsx
+++ b/files/system/import-shackles-sample.xlsx
@@ -471,9 +471,7 @@
   <dimension ref="A1:AE6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="8" ySplit="0" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="W3" activeCellId="0" sqref="W3"/>
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/files/system/import-shackles-sample.xlsx
+++ b/files/system/import-shackles-sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t xml:space="preserve">Item description</t>
   </si>
@@ -94,7 +94,10 @@
     <t xml:space="preserve">Date of discharged</t>
   </si>
   <si>
-    <t xml:space="preserve">Remarks</t>
+    <t xml:space="preserve">Remarks Load Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks Visual Inspection</t>
   </si>
   <si>
     <t xml:space="preserve">Initial Test Passed</t>
@@ -134,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">DNV ins. &amp; Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Load test Carried out by Master &amp; DNV Inspector in Durban 26.11.2022</t>
   </si>
   <si>
     <t xml:space="preserve">Annual Visual Inspection Carried out by Master &amp; DNV Inspector in Durban 26.11.2022</t>
@@ -468,10 +474,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AF6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y3" activeCellId="0" sqref="Y3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -495,10 +501,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="2" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="24" style="2" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="26" style="2" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="2" width="14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="29" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="24" style="2" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="2" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="30" style="2" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -586,19 +592,22 @@
       <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="8" t="n">
         <v>373</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E2" s="9" t="n">
         <v>1230</v>
@@ -616,63 +625,66 @@
         <v>4</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M2" s="10" t="n">
         <v>2</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O2" s="12" t="n">
         <v>39476</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q2" s="12" t="n">
         <v>39454</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="S2" s="12" t="n">
         <v>41981</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U2" s="12" t="n">
         <v>44891</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="W2" s="13" t="n">
         <v>10</v>
       </c>
       <c r="X2" s="13"/>
       <c r="Y2" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" s="13" t="n">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>40</v>
       </c>
       <c r="AA2" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AB2" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="AC2" s="0"/>
       <c r="AD2" s="0"/>
       <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="15"/>

--- a/files/system/import-shackles-sample.xlsx
+++ b/files/system/import-shackles-sample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t xml:space="preserve">Item description</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">Remarks Visual Inspection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial Test Passed</t>
   </si>
   <si>
     <t xml:space="preserve">Last Test Passed</t>
@@ -474,10 +471,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:AMJ6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Y3" activeCellId="0" sqref="Y3"/>
+      <selection pane="topLeft" activeCell="AA1" activeCellId="0" sqref="AA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -502,9 +499,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="2" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="7.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="24" style="2" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="27" style="2" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="30" style="2" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="2" width="14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="29" style="2" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -592,22 +589,20 @@
       <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="4" t="s">
-        <v>28</v>
-      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="C2" s="8" t="n">
         <v>373</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="9" t="n">
         <v>1230</v>
@@ -625,66 +620,63 @@
         <v>4</v>
       </c>
       <c r="J2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>34</v>
       </c>
       <c r="M2" s="10" t="n">
         <v>2</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O2" s="12" t="n">
         <v>39476</v>
       </c>
       <c r="P2" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="12" t="n">
         <v>39454</v>
       </c>
       <c r="R2" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S2" s="12" t="n">
         <v>41981</v>
       </c>
       <c r="T2" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U2" s="12" t="n">
         <v>44891</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W2" s="13" t="n">
         <v>10</v>
       </c>
       <c r="X2" s="13"/>
       <c r="Y2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>40</v>
       </c>
       <c r="AA2" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AB2" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="13" t="n">
         <v>1</v>
       </c>
+      <c r="AC2" s="0"/>
       <c r="AD2" s="0"/>
       <c r="AE2" s="0"/>
-      <c r="AF2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="15"/>
